--- a/rose_pixel_art_corrected.xlsx
+++ b/rose_pixel_art_corrected.xlsx
@@ -443,55 +443,72 @@
       <c r="D2" s="1" t="n"/>
       <c r="E2" s="1" t="n"/>
       <c r="F2" s="1" t="n"/>
+      <c r="G2" s="1" t="n"/>
+      <c r="H2" s="1" t="n"/>
     </row>
     <row r="3" ht="18" customHeight="1">
       <c r="C3" s="1" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="1" t="n"/>
+      <c r="F3" s="1" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="1" t="n"/>
     </row>
     <row r="4" ht="18" customHeight="1">
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n"/>
+      <c r="D4" s="2" t="n"/>
+      <c r="E4" s="2" t="n"/>
       <c r="F4" s="2" t="n"/>
       <c r="G4" s="2" t="n"/>
-      <c r="H4" s="1" t="n"/>
+      <c r="H4" s="2" t="n"/>
+      <c r="I4" s="2" t="n"/>
+      <c r="J4" s="1" t="n"/>
     </row>
     <row r="5" ht="18" customHeight="1">
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n"/>
+      <c r="D5" s="2" t="n"/>
       <c r="F5" s="2" t="n"/>
       <c r="G5" s="2" t="n"/>
       <c r="H5" s="2" t="n"/>
-      <c r="I5" s="1" t="n"/>
+      <c r="I5" s="2" t="n"/>
+      <c r="J5" s="1" t="n"/>
     </row>
     <row r="6" ht="18" customHeight="1">
-      <c r="C6" s="1" t="n"/>
+      <c r="B6" s="1" t="n"/>
+      <c r="C6" s="2" t="n"/>
       <c r="D6" s="2" t="n"/>
       <c r="E6" s="2" t="n"/>
+      <c r="F6" s="2" t="n"/>
       <c r="G6" s="2" t="n"/>
       <c r="H6" s="2" t="n"/>
       <c r="I6" s="2" t="n"/>
       <c r="J6" s="1" t="n"/>
     </row>
     <row r="7" ht="18" customHeight="1">
-      <c r="B7" s="1" t="n"/>
+      <c r="C7" s="1" t="n"/>
+      <c r="D7" s="2" t="n"/>
+      <c r="E7" s="2" t="n"/>
+      <c r="F7" s="2" t="n"/>
+      <c r="G7" s="2" t="n"/>
       <c r="H7" s="2" t="n"/>
       <c r="I7" s="1" t="n"/>
     </row>
     <row r="8" ht="18" customHeight="1">
-      <c r="B8" s="1" t="n"/>
+      <c r="D8" s="1" t="n"/>
+      <c r="E8" s="2" t="n"/>
+      <c r="F8" s="2" t="n"/>
+      <c r="G8" s="2" t="n"/>
       <c r="H8" s="1" t="n"/>
-      <c r="I8" s="2" t="n"/>
     </row>
     <row r="9" ht="18" customHeight="1">
-      <c r="C9" s="1" t="n"/>
+      <c r="E9" s="1" t="n"/>
+      <c r="F9" s="2" t="n"/>
       <c r="G9" s="1" t="n"/>
     </row>
     <row r="10" ht="18" customHeight="1">
-      <c r="D10" s="1" t="n"/>
-      <c r="E10" s="1" t="n"/>
       <c r="F10" s="1" t="n"/>
     </row>
     <row r="11" ht="18" customHeight="1"/>

--- a/rose_pixel_art_corrected.xlsx
+++ b/rose_pixel_art_corrected.xlsx
@@ -442,7 +442,6 @@
     <row r="2" ht="18" customHeight="1">
       <c r="D2" s="1" t="n"/>
       <c r="E2" s="1" t="n"/>
-      <c r="F2" s="1" t="n"/>
       <c r="G2" s="1" t="n"/>
       <c r="H2" s="1" t="n"/>
     </row>
@@ -470,6 +469,7 @@
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n"/>
       <c r="D5" s="2" t="n"/>
+      <c r="E5" s="2" t="n"/>
       <c r="F5" s="2" t="n"/>
       <c r="G5" s="2" t="n"/>
       <c r="H5" s="2" t="n"/>
